--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -13,18 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="51" r:id="rId1"/>
-    <sheet name="TG102SE" sheetId="50" r:id="rId2"/>
-    <sheet name="TG102V" sheetId="49" r:id="rId3"/>
+    <sheet name="TG102V" sheetId="50" r:id="rId2"/>
+    <sheet name="TG102SE" sheetId="49" r:id="rId3"/>
     <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -245,6 +245,39 @@
   </si>
   <si>
     <t>Lắp Đặt</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim</t>
+  </si>
+  <si>
+    <t>Thay khay sim</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>ID cũ: 861694030931919</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị, xử lý lại khay sim</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, SF</t>
   </si>
 </sst>
 </file>
@@ -669,6 +702,12 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,12 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,16 +1105,16 @@
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1114,7 +1147,7 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="72" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -1134,25 +1167,25 @@
         <v>11</v>
       </c>
       <c r="L4" s="67"/>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="U4" s="67" t="s">
@@ -1164,7 +1197,7 @@
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1196,13 +1229,13 @@
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="U5" s="67"/>
       <c r="V5" s="67"/>
       <c r="W5" s="37"/>
@@ -1238,7 +1271,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1269,7 +1302,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1331,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1327,7 +1360,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1389,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1385,7 +1418,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1414,7 +1447,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1445,7 +1478,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1474,7 +1507,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1503,7 +1536,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1532,7 +1565,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3249,6 +3282,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3260,13 +3300,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3278,7 +3311,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3335,16 +3368,16 @@
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3377,7 +3410,7 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="72" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -3397,25 +3430,25 @@
         <v>11</v>
       </c>
       <c r="L4" s="67"/>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="U4" s="67" t="s">
@@ -3427,7 +3460,7 @@
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3459,13 +3492,13 @@
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="U5" s="67"/>
       <c r="V5" s="67"/>
       <c r="W5" s="37"/>
@@ -3501,7 +3534,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3540,7 +3573,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3569,7 +3602,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3598,7 +3631,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3627,7 +3660,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3656,7 +3689,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3685,7 +3718,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3716,7 +3749,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3745,7 +3778,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3774,7 +3807,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3803,7 +3836,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5519,6 +5552,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5530,13 +5570,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5548,7 +5581,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5605,16 +5638,16 @@
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5647,7 +5680,7 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="72" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -5667,25 +5700,25 @@
         <v>11</v>
       </c>
       <c r="L4" s="67"/>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="U4" s="67" t="s">
@@ -5697,7 +5730,7 @@
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5729,13 +5762,13 @@
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="U5" s="67"/>
       <c r="V5" s="67"/>
       <c r="W5" s="37"/>
@@ -5759,19 +5792,35 @@
         <v>62</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="I6" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>66</v>
+      </c>
       <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
+      <c r="M6" s="55" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="56"/>
+      <c r="O6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>76</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5797,20 +5846,38 @@
       <c r="G7" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K7" s="46"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>69</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5839,7 +5906,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5868,7 +5935,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5897,7 +5964,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5926,7 +5993,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5955,7 +6022,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5986,7 +6053,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6015,7 +6082,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6044,7 +6111,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6073,7 +6140,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6223,7 +6290,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -6255,7 +6322,7 @@
       </c>
       <c r="V22" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="12"/>
     </row>
@@ -6532,7 +6599,7 @@
       </c>
       <c r="V31" s="3">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="12"/>
     </row>
@@ -6596,7 +6663,7 @@
       </c>
       <c r="V33" s="3">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="12"/>
     </row>
@@ -6724,7 +6791,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -7789,6 +7856,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7800,13 +7874,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7875,16 +7942,16 @@
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -7917,7 +7984,7 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="72" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -7937,10 +8004,10 @@
         <v>11</v>
       </c>
       <c r="L4" s="67"/>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="67" t="s">
@@ -7955,7 +8022,7 @@
       <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="U4" s="67" t="s">
@@ -7967,7 +8034,7 @@
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -7999,13 +8066,13 @@
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
       <c r="O5" s="67"/>
       <c r="P5" s="81"/>
       <c r="Q5" s="67"/>
       <c r="R5" s="67"/>
-      <c r="S5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="U5" s="67"/>
       <c r="V5" s="67"/>
       <c r="W5" s="37"/>
@@ -8033,7 +8100,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8064,7 +8131,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8093,7 +8160,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8122,7 +8189,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8151,7 +8218,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8180,7 +8247,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8209,7 +8276,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8240,7 +8307,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8269,7 +8336,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8298,7 +8365,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8327,7 +8394,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9558,13 +9625,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9576,6 +9636,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8975097-F921-470C-B8EF-7A822705D96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="51" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -279,11 +280,29 @@
   <si>
     <t>LK, SF</t>
   </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Mất Imei</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767,1</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nâng cấp FW mới, thay khay sim </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,6 +715,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,30 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,6 +853,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -869,6 +905,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1044,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1080,41 +1133,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1147,57 +1200,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1222,22 +1275,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,7 +1324,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1302,7 +1355,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1331,7 +1384,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +1413,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1389,7 +1442,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1418,7 +1471,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1447,7 +1500,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1478,7 +1531,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1507,7 +1560,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1536,7 +1589,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1565,7 +1618,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3282,13 +3335,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3300,6 +3346,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3307,11 +3360,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3343,41 +3396,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3410,57 +3463,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3485,22 +3538,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3522,19 +3575,17 @@
         <v>62</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="54"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="55"/>
+      <c r="L6" s="27"/>
       <c r="N6" s="65"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="55"/>
       <c r="Q6" s="53"/>
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3560,20 +3611,38 @@
       <c r="G7" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>78</v>
+      </c>
       <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
+      <c r="L7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>82</v>
+      </c>
       <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3602,7 +3671,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3631,7 +3700,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3660,7 +3729,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3689,7 +3758,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3718,7 +3787,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3749,7 +3818,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3778,7 +3847,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3807,7 +3876,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3836,7 +3905,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3954,7 +4023,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -4423,7 +4492,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -4487,7 +4556,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -5552,13 +5621,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5570,6 +5632,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5577,10 +5646,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -5613,41 +5682,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5680,57 +5749,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5755,22 +5824,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5820,7 +5889,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5877,7 +5946,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5906,7 +5975,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5935,7 +6004,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5964,7 +6033,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5993,7 +6062,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6022,7 +6091,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6053,7 +6122,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6082,7 +6151,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6111,7 +6180,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6140,7 +6209,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7856,13 +7925,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7874,6 +7936,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7881,7 +7950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7917,41 +7986,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -7984,57 +8053,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8059,22 +8128,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8100,7 +8169,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8131,7 +8200,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8160,7 +8229,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8189,7 +8258,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8218,7 +8287,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8247,7 +8316,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8276,7 +8345,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8307,7 +8376,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8336,7 +8405,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8365,7 +8434,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8394,7 +8463,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9625,6 +9694,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9636,13 +9712,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8975097-F921-470C-B8EF-7A822705D96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E048B9A1-CD22-445E-8B39-DD8E861FDD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14205" yWindow="420" windowWidth="13530" windowHeight="13965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="51" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -298,6 +298,18 @@
   <si>
     <t xml:space="preserve">Nâng cấp FW mới, thay khay sim </t>
   </si>
+  <si>
+    <t>125.212.203.114,16767,0</t>
+  </si>
+  <si>
+    <t>Reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
 </sst>
 </file>
 
@@ -517,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,30 +727,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,8 +745,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,41 +1148,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1200,57 +1215,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1275,22 +1290,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,7 +1339,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1355,7 +1370,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1384,7 +1399,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1413,7 +1428,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1442,7 +1457,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1471,7 +1486,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1500,7 +1515,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1531,7 +1546,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1575,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +1604,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1618,7 +1633,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3335,6 +3350,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3346,13 +3368,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3363,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3396,41 +3411,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3463,57 +3478,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3538,22 +3553,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,17 +3590,35 @@
         <v>62</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="54"/>
+      <c r="I6" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>77</v>
+      </c>
       <c r="L6" s="27"/>
+      <c r="M6" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="N6" s="65"/>
-      <c r="O6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="56"/>
+      <c r="O6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3642,7 +3675,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3671,7 +3704,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3700,7 +3733,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3729,7 +3762,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3758,7 +3791,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3787,7 +3820,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3818,7 +3851,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3847,7 +3880,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3876,7 +3909,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3905,7 +3938,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4023,7 +4056,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -4492,7 +4525,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -4556,7 +4589,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -5621,6 +5654,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5632,13 +5672,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5682,41 +5715,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5749,57 +5782,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5824,22 +5857,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5889,7 +5922,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5946,7 +5979,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5975,7 +6008,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6004,7 +6037,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6033,7 +6066,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6062,7 +6095,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6091,7 +6124,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6122,7 +6155,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6151,7 +6184,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6180,7 +6213,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6209,7 +6242,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7925,6 +7958,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7936,13 +7976,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7986,41 +8019,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -8053,57 +8086,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8128,22 +8161,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8169,7 +8202,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8200,7 +8233,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8229,7 +8262,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8258,7 +8291,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8287,7 +8320,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8316,7 +8349,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8345,7 +8378,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8376,7 +8409,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8405,7 +8438,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8434,7 +8467,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8463,7 +8496,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9694,13 +9727,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9712,6 +9738,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E048B9A1-CD22-445E-8B39-DD8E861FDD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24A4789-1549-47CE-BC52-5119581114D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="420" windowWidth="13530" windowHeight="13965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="51" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Quang</t>
+  </si>
+  <si>
+    <t>Sim</t>
   </si>
 </sst>
 </file>
@@ -727,6 +730,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,35 +775,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,41 +1151,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1215,26 +1218,26 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
@@ -1244,7 +1247,7 @@
       <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="73" t="s">
@@ -1253,19 +1256,19 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1293,7 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1300,12 +1303,12 @@
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="S5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1339,7 +1342,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1370,7 +1373,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1399,7 +1402,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1428,7 +1431,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1457,7 +1460,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1486,7 +1489,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1515,7 +1518,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1546,7 +1549,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1575,7 +1578,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1604,7 +1607,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1633,7 +1636,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3350,13 +3353,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3368,6 +3364,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3378,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3411,41 +3414,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3478,26 +3481,26 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
@@ -3507,7 +3510,7 @@
       <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="73" t="s">
@@ -3516,19 +3519,19 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3553,7 +3556,7 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
@@ -3563,12 +3566,12 @@
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="S5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,7 +3593,7 @@
         <v>62</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="67" t="s">
         <v>83</v>
       </c>
       <c r="J6" s="27" t="s">
@@ -3618,7 +3621,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3640,7 +3643,9 @@
       <c r="E7" s="49">
         <v>864811036960891</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="G7" s="48" t="s">
         <v>62</v>
       </c>
@@ -3675,7 +3680,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3704,7 +3709,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3733,7 +3738,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3762,7 +3767,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3791,7 +3796,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3820,7 +3825,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3851,7 +3856,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3880,7 +3885,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3909,7 +3914,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3938,7 +3943,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5654,13 +5659,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5672,6 +5670,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5715,41 +5720,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5782,26 +5787,26 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
@@ -5811,7 +5816,7 @@
       <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="73" t="s">
@@ -5820,19 +5825,19 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5857,7 +5862,7 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
@@ -5867,12 +5872,12 @@
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="S5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5922,7 +5927,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5979,7 +5984,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6008,7 +6013,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6037,7 +6042,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6066,7 +6071,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6095,7 +6100,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6124,7 +6129,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6155,7 +6160,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6184,7 +6189,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6213,7 +6218,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6242,7 +6247,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7958,13 +7963,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7976,6 +7974,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8019,41 +8024,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -8086,57 +8091,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8161,7 +8166,7 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
@@ -8170,13 +8175,13 @@
       </c>
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8202,7 +8207,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8233,7 +8238,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8262,7 +8267,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8291,7 +8296,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8320,7 +8325,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8349,7 +8354,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8378,7 +8383,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8409,7 +8414,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8438,7 +8443,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8467,7 +8472,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8496,7 +8501,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9727,6 +9732,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9738,13 +9750,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24A4789-1549-47CE-BC52-5119581114D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE" sheetId="51" r:id="rId1"/>
-    <sheet name="TG102V" sheetId="50" r:id="rId2"/>
-    <sheet name="TG102SE" sheetId="49" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG102LE-4G" sheetId="52" r:id="rId1"/>
+    <sheet name="TG102LE" sheetId="51" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="50" r:id="rId3"/>
+    <sheet name="TG102SE" sheetId="49" r:id="rId4"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -313,11 +315,14 @@
   <si>
     <t>Sim</t>
   </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -733,6 +738,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -871,23 +882,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -923,23 +917,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1115,11 +1092,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1151,41 +1128,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1218,97 +1195,97 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="69" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="34" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,21 +1293,21 @@
         <v>1</v>
       </c>
       <c r="B6" s="50">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="48" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E6" s="49">
-        <v>868183037839482</v>
+        <v>861881051080118</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="66"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="62"/>
       <c r="K6" s="54"/>
       <c r="L6" s="61"/>
@@ -1342,7 +1319,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1354,12 +1331,20 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="50">
+        <v>44841</v>
+      </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="D7" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="49">
+        <v>862205051199232</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="H7" s="51"/>
       <c r="I7" s="52"/>
       <c r="J7" s="53"/>
@@ -1373,7 +1358,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1387,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1416,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1460,7 +1445,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1474,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1503,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1549,7 +1534,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1563,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1607,7 +1592,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1621,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1719,7 +1704,7 @@
       <c r="R19" s="56"/>
       <c r="S19" s="62"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="34" t="s">
+      <c r="U19" s="69" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="14" t="s">
@@ -1900,7 +1885,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="12"/>
-      <c r="U25" s="34" t="s">
+      <c r="U25" s="69" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="14" t="s">
@@ -3353,6 +3338,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3364,13 +3356,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3378,11 +3363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3414,41 +3399,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3481,57 +3466,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3556,22 +3541,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,47 +3566,33 @@
       <c r="B6" s="50">
         <v>44840</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>44841</v>
+      </c>
       <c r="D6" s="48" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E6" s="49">
-        <v>869627031752207</v>
+        <v>868183037839482</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="65"/>
-      <c r="O6" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="56" t="s">
-        <v>24</v>
-      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3633,54 +3604,26 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="50">
-        <v>44840</v>
-      </c>
+      <c r="B7" s="50"/>
       <c r="C7" s="50"/>
-      <c r="D7" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="49">
-        <v>864811036960891</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>78</v>
-      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="54"/>
-      <c r="L7" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>82</v>
-      </c>
+      <c r="L7" s="61"/>
+      <c r="M7" s="55"/>
       <c r="N7" s="53"/>
-      <c r="O7" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="56" t="s">
-        <v>24</v>
-      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3700,7 +3643,7 @@
       <c r="I8" s="52"/>
       <c r="J8" s="53"/>
       <c r="K8" s="54"/>
-      <c r="L8" s="55"/>
+      <c r="L8" s="61"/>
       <c r="M8" s="55"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
@@ -3709,7 +3652,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3721,24 +3664,24 @@
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3750,24 +3693,24 @@
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3779,24 +3722,24 @@
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3808,24 +3751,24 @@
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3839,24 +3782,24 @@
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3866,26 +3809,26 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3895,26 +3838,26 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3924,26 +3867,26 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3953,23 +3896,24 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="62"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="13"/>
@@ -3979,24 +3923,24 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="62"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="13"/>
@@ -4006,24 +3950,24 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="62"/>
       <c r="T19" s="12"/>
       <c r="U19" s="34" t="s">
         <v>39</v>
@@ -4037,31 +3981,31 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="62"/>
       <c r="T20" s="12"/>
       <c r="U20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -4069,24 +4013,24 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="62"/>
       <c r="T21" s="12"/>
       <c r="U21" s="3" t="s">
         <v>49</v>
@@ -4530,7 +4474,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -4594,7 +4538,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -5684,11 +5628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5720,41 +5664,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5787,57 +5731,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5862,22 +5806,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5887,47 +5831,49 @@
       <c r="B6" s="50">
         <v>44840</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>44841</v>
+      </c>
       <c r="D6" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="49">
-        <v>862631037515268</v>
+        <v>869627031752207</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>73</v>
+      <c r="I6" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="53"/>
+        <v>77</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="65"/>
       <c r="O6" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="55" t="s">
-        <v>71</v>
+      <c r="P6" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="Q6" s="53" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="R6" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5942,49 +5888,53 @@
       <c r="B7" s="50">
         <v>44840</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50">
+        <v>44841</v>
+      </c>
       <c r="D7" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="49">
-        <v>861694030931917</v>
-      </c>
-      <c r="F7" s="48"/>
+        <v>864811036960891</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="G7" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="52" t="s">
-        <v>72</v>
+      <c r="H7" s="51" t="s">
+        <v>81</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="3"/>
+      <c r="P7" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5996,24 +5946,24 @@
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="31"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="52"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6030,10 +5980,10 @@
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="31"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="54"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="33"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -6042,7 +5992,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6059,7 +6009,7 @@
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" s="31"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="1"/>
       <c r="K10" s="32"/>
       <c r="L10" s="33"/>
@@ -6071,7 +6021,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6084,14 +6034,14 @@
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
       <c r="D11" s="48"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="48"/>
       <c r="H11" s="47"/>
       <c r="I11" s="43"/>
       <c r="J11" s="1"/>
       <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="33"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -6100,7 +6050,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6113,14 +6063,14 @@
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
       <c r="D12" s="48"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="48"/>
       <c r="H12" s="47"/>
-      <c r="I12" s="52"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="54"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="33"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6129,7 +6079,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6147,11 +6097,11 @@
       <c r="E13" s="49"/>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="52"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="54"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -6160,7 +6110,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6189,7 +6139,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6218,7 +6168,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6247,7 +6197,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6365,7 +6315,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -6397,7 +6347,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -6429,7 +6379,7 @@
       </c>
       <c r="V22" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="12"/>
     </row>
@@ -6706,7 +6656,7 @@
       </c>
       <c r="V31" s="3">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31" s="12"/>
     </row>
@@ -6770,7 +6720,7 @@
       </c>
       <c r="V33" s="3">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="12"/>
     </row>
@@ -6834,7 +6784,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -6898,7 +6848,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -7988,7 +7938,2315 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17" style="10" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="53" style="10" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="20" customWidth="1"/>
+    <col min="13" max="13" width="58" style="10" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="10" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="10"/>
+    <col min="21" max="21" width="30.5703125" style="10" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="10" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="36"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="37"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="78"/>
+      <c r="K5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="37"/>
+    </row>
+    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="50">
+        <v>44840</v>
+      </c>
+      <c r="C6" s="50">
+        <v>44841</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="49">
+        <v>862631037515268</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="12"/>
+    </row>
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="50">
+        <v>44840</v>
+      </c>
+      <c r="C7" s="50">
+        <v>44841</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="49">
+        <v>861694030931917</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="12"/>
+    </row>
+    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="12"/>
+    </row>
+    <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="12"/>
+    </row>
+    <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="12"/>
+    </row>
+    <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="12"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="12"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="12"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="12"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="12"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="38"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="3">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="12"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="3">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="12"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="3">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="12"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="12"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="38"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="3">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="3">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="12"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="3">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="12"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="3">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="12"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="3">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="12"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="3">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>2</v>
+      </c>
+      <c r="W31" s="12"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="3">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="3">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>1</v>
+      </c>
+      <c r="W33" s="12"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="3">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="12"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="3">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="12"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="3">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="12"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="3">
+        <f>SUM(V26:V36)</f>
+        <v>3</v>
+      </c>
+      <c r="W37" s="12"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="12"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="12"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="3">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="12"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="3">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="12"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="12"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="12"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="3">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="3">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="3">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="28">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="3">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="26"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>45</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="26"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="26"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="26"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="26"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="26"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="26"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="26"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="26"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="26"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="26"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="26"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8024,41 +10282,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -8091,57 +10349,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8166,22 +10424,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8207,7 +10465,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8238,7 +10496,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8267,7 +10525,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8296,7 +10554,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8325,7 +10583,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8354,7 +10612,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8383,7 +10641,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8414,7 +10672,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8443,7 +10701,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8472,7 +10730,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8501,7 +10759,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>LE4.1.02.---55.210624</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1351,9 @@
       <c r="H7" s="51"/>
       <c r="I7" s="52"/>
       <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="K7" s="54" t="s">
+        <v>89</v>
+      </c>
       <c r="L7" s="61"/>
       <c r="M7" s="55"/>
       <c r="N7" s="53"/>
@@ -3338,13 +3343,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3356,6 +3354,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5603,6 +5608,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5614,13 +5626,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7913,6 +7918,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7924,13 +7936,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10221,6 +10226,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10232,13 +10244,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11990,13 +11995,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12008,6 +12006,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -320,6 +320,18 @@
   </si>
   <si>
     <t>LE4.1.02.---55.210624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM, GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại MCU</t>
   </si>
 </sst>
 </file>
@@ -747,30 +759,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,6 +776,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,7 +1111,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1131,41 +1143,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1198,57 +1210,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
@@ -1273,22 +1285,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1310,19 +1322,35 @@
         <v>88</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="54"/>
+      <c r="I6" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>91</v>
+      </c>
       <c r="L6" s="61"/>
-      <c r="M6" s="55"/>
+      <c r="M6" s="55" t="s">
+        <v>93</v>
+      </c>
       <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="56"/>
+      <c r="O6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>20</v>
+      </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1363,7 +1391,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1420,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1449,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1450,7 +1478,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1507,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1508,7 +1536,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1539,7 +1567,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1568,7 +1596,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1597,7 +1625,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1654,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1777,7 +1805,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -1926,7 +1954,7 @@
       </c>
       <c r="V26" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="12"/>
     </row>
@@ -2278,7 +2306,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -3343,6 +3371,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3354,13 +3389,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3404,41 +3432,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3471,57 +3499,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3546,22 +3574,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3597,7 +3625,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3628,7 +3656,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3657,7 +3685,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3686,7 +3714,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3715,7 +3743,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3744,7 +3772,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3773,7 +3801,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3804,7 +3832,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3833,7 +3861,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3862,7 +3890,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3891,7 +3919,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5608,13 +5636,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5626,6 +5647,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5669,41 +5697,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5736,57 +5764,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5811,22 +5839,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,7 +5906,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5939,7 +5967,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5968,7 +5996,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5997,7 +6025,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6026,7 +6054,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6055,7 +6083,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6084,7 +6112,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6115,7 +6143,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6144,7 +6172,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6173,7 +6201,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6202,7 +6230,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7918,13 +7946,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7936,6 +7957,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7979,41 +8007,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -8046,57 +8074,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8121,22 +8149,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8188,7 +8216,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8247,7 +8275,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8276,7 +8304,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8305,7 +8333,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8334,7 +8362,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8363,7 +8391,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8392,7 +8420,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8423,7 +8451,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8452,7 +8480,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8481,7 +8509,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8510,7 +8538,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10226,13 +10254,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10244,6 +10265,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10287,41 +10315,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -10354,57 +10382,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -10429,22 +10457,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10470,7 +10498,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10501,7 +10529,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10530,7 +10558,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10559,7 +10587,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10588,7 +10616,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10617,7 +10645,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10646,7 +10674,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10677,7 +10705,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10706,7 +10734,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10735,7 +10763,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10764,7 +10792,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11995,6 +12023,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12006,13 +12041,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="52" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Mất Imei</t>
   </si>
   <si>
-    <t>125.212.203.114,16767,1</t>
-  </si>
-  <si>
     <t>Đức</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nâng cấp FW mới, thay khay sim </t>
-  </si>
-  <si>
-    <t>125.212.203.114,16767,0</t>
   </si>
   <si>
     <t>Reset liên tục</t>
@@ -332,6 +326,51 @@
   </si>
   <si>
     <t>Xử lý lại MCU</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi flash</t>
+  </si>
+  <si>
+    <t>Thay flash</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>LE.2.00.---25.200220</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baudrate GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
   </si>
 </sst>
 </file>
@@ -747,9 +786,6 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,6 +793,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1110,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1261,35 +1300,35 @@
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="68" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="70"/>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="77"/>
@@ -1319,21 +1358,21 @@
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="68" t="s">
+      <c r="J6" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="62" t="s">
-        <v>92</v>
-      </c>
       <c r="K6" s="54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N6" s="53"/>
       <c r="O6" s="53" t="s">
@@ -1374,13 +1413,13 @@
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="52"/>
       <c r="J7" s="53"/>
       <c r="K7" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L7" s="61"/>
       <c r="M7" s="55"/>
@@ -1737,7 +1776,7 @@
       <c r="R19" s="56"/>
       <c r="S19" s="62"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="69" t="s">
+      <c r="U19" s="68" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="14" t="s">
@@ -1918,7 +1957,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="12"/>
-      <c r="U25" s="69" t="s">
+      <c r="U25" s="68" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="14" t="s">
@@ -3399,8 +3438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3613,7 +3652,9 @@
         <v>62</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="66"/>
+      <c r="I6" s="69" t="s">
+        <v>104</v>
+      </c>
       <c r="J6" s="62"/>
       <c r="K6" s="54"/>
       <c r="L6" s="61"/>
@@ -3637,23 +3678,49 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="50">
+        <v>44851</v>
+      </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="D7" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="49">
+        <v>860157040241215</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="55"/>
+      <c r="I7" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>101</v>
+      </c>
       <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>102</v>
+      </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
       <c r="U7" s="79"/>
@@ -3666,23 +3733,47 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="50">
+        <v>44851</v>
+      </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="D8" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="49">
+        <v>868183034595194</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="52" t="s">
+        <v>98</v>
+      </c>
       <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="55"/>
+      <c r="K8" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="56"/>
+      <c r="O8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
       <c r="U8" s="79"/>
@@ -4038,7 +4129,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -4411,7 +4502,7 @@
       </c>
       <c r="V32" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="12"/>
     </row>
@@ -4507,7 +4598,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -4571,7 +4662,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -5664,8 +5755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5878,25 +5969,25 @@
         <v>62</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="67" t="s">
-        <v>83</v>
+      <c r="I6" s="66" t="s">
+        <v>93</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K6" s="54" t="s">
         <v>77</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N6" s="65"/>
       <c r="O6" s="53" t="s">
         <v>70</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="53" t="s">
         <v>19</v>
@@ -5931,16 +6022,16 @@
         <v>864811036960891</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>78</v>
@@ -5950,14 +6041,14 @@
         <v>77</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N7" s="53"/>
       <c r="O7" s="53" t="s">
         <v>70</v>
       </c>
       <c r="P7" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="53" t="s">
         <v>19</v>
@@ -5977,23 +6068,47 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="50">
+        <v>44851</v>
+      </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="D8" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="49">
+        <v>864811034159857</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>92</v>
+      </c>
       <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
+      <c r="M8" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="56"/>
+      <c r="O8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
       <c r="U8" s="79"/>
@@ -6006,23 +6121,43 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="50">
+        <v>44851</v>
+      </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="49">
+        <v>868926033944619</v>
+      </c>
       <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="G9" s="48" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="31"/>
       <c r="I9" s="43"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="L9" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>106</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
       <c r="U9" s="79"/>
@@ -6165,7 +6300,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="1"/>
@@ -6380,7 +6517,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -6412,7 +6549,7 @@
       </c>
       <c r="V22" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="12"/>
     </row>
@@ -6689,7 +6826,7 @@
       </c>
       <c r="V31" s="3">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="12"/>
     </row>
@@ -6817,7 +6954,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -6881,7 +7018,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W37" s="12"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -798,6 +804,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,30 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,7 +1156,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1182,41 +1188,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1249,57 +1255,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1324,22 +1330,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,7 +1355,9 @@
       <c r="B6" s="50">
         <v>44841</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>44853</v>
+      </c>
       <c r="D6" s="48" t="s">
         <v>56</v>
       </c>
@@ -1389,7 +1397,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1404,7 +1412,9 @@
       <c r="B7" s="50">
         <v>44841</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50">
+        <v>44853</v>
+      </c>
       <c r="D7" s="48" t="s">
         <v>56</v>
       </c>
@@ -1430,7 +1440,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1459,7 +1469,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1488,7 +1498,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1517,7 +1527,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1546,7 +1556,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1575,7 +1585,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1606,7 +1616,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1635,7 +1645,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1664,7 +1674,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1693,7 +1703,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3410,13 +3420,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3428,6 +3431,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3438,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3471,41 +3481,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3538,57 +3548,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3613,22 +3623,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3666,7 +3676,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3681,7 +3691,9 @@
       <c r="B7" s="50">
         <v>44851</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50">
+        <v>44853</v>
+      </c>
       <c r="D7" s="48" t="s">
         <v>44</v>
       </c>
@@ -3723,7 +3735,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3736,7 +3748,9 @@
       <c r="B8" s="50">
         <v>44851</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="50">
+        <v>44853</v>
+      </c>
       <c r="D8" s="48" t="s">
         <v>44</v>
       </c>
@@ -3776,7 +3790,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3786,26 +3800,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="50">
+        <v>44854</v>
+      </c>
+      <c r="C9" s="50">
+        <v>44854</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="32">
+        <v>860157040214246</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
+      <c r="I9" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="K9" s="53"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="55"/>
+      <c r="L9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>101</v>
+      </c>
       <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="56"/>
+      <c r="O9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>102</v>
+      </c>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3815,26 +3855,52 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="B10" s="50">
+        <v>44854</v>
+      </c>
+      <c r="C10" s="50">
+        <v>44854</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="32">
+        <v>867717030486634</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="52" t="s">
+        <v>98</v>
+      </c>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="55"/>
+      <c r="L10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="56"/>
+      <c r="O10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3863,7 +3929,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3892,7 +3958,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3923,7 +3989,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3952,7 +4018,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3981,7 +4047,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4010,7 +4076,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4129,7 +4195,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -4502,7 +4568,7 @@
       </c>
       <c r="V32" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32" s="12"/>
     </row>
@@ -4598,7 +4664,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -4662,7 +4728,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -5727,6 +5793,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5738,13 +5811,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5755,8 +5821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5788,41 +5854,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5855,57 +5921,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5930,22 +5996,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5997,7 +6063,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6058,7 +6124,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6071,7 +6137,9 @@
       <c r="B8" s="50">
         <v>44851</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="50">
+        <v>44853</v>
+      </c>
       <c r="D8" s="48" t="s">
         <v>64</v>
       </c>
@@ -6111,7 +6179,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6124,7 +6192,9 @@
       <c r="B9" s="50">
         <v>44851</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="50">
+        <v>44853</v>
+      </c>
       <c r="D9" s="48" t="s">
         <v>64</v>
       </c>
@@ -6160,7 +6230,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6189,7 +6259,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6218,7 +6288,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6247,7 +6317,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6278,7 +6348,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6309,7 +6379,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6338,7 +6408,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6367,7 +6437,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8083,6 +8153,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8094,13 +8171,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8144,41 +8214,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -8211,57 +8281,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8286,22 +8356,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8353,7 +8423,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8412,7 +8482,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8441,7 +8511,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8470,7 +8540,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8499,7 +8569,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8528,7 +8598,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8557,7 +8627,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8588,7 +8658,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8617,7 +8687,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8646,7 +8716,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8675,7 +8745,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10391,6 +10461,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10402,13 +10479,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10452,41 +10522,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -10519,57 +10589,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -10594,22 +10664,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10635,7 +10705,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10666,7 +10736,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10695,7 +10765,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10724,7 +10794,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10753,7 +10823,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10782,7 +10852,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10811,7 +10881,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10842,7 +10912,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10871,7 +10941,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10900,7 +10970,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10929,7 +10999,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12160,13 +12230,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12178,6 +12241,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="52" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -377,6 +377,36 @@
   </si>
   <si>
     <t>Thể</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NCFW,LK</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module SIM</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Restore thiết bị</t>
   </si>
 </sst>
 </file>
@@ -3448,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showZeros="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3910,23 +3940,49 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="B11" s="50">
+        <v>44859</v>
+      </c>
+      <c r="C11" s="50">
+        <v>44859</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="32">
+        <v>867857039939322</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="63"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="61"/>
+      <c r="I11" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>100</v>
+      </c>
       <c r="L11" s="61"/>
-      <c r="M11" s="55"/>
+      <c r="M11" s="55" t="s">
+        <v>113</v>
+      </c>
       <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="56"/>
+      <c r="O11" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>35</v>
+      </c>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
       <c r="U11" s="71"/>
@@ -4227,7 +4283,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -4408,7 +4464,7 @@
       </c>
       <c r="V27" s="3">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="12"/>
     </row>
@@ -4728,7 +4784,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -4846,7 +4902,7 @@
       </c>
       <c r="V41" s="3">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="12"/>
     </row>
@@ -5821,8 +5877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6018,16 +6074,16 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="30">
         <v>44840</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="30">
         <v>44841</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="32">
         <v>869627031752207</v>
       </c>
       <c r="F6" s="48"/>
@@ -6075,16 +6131,16 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="30">
         <v>44840</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="30">
         <v>44841</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="32">
         <v>864811036960891</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -6134,16 +6190,16 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="30">
         <v>44851</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="30">
         <v>44853</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="32">
         <v>864811034159857</v>
       </c>
       <c r="F8" s="48"/>
@@ -6189,16 +6245,16 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="30">
         <v>44851</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="30">
         <v>44853</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="32">
         <v>868926033944619</v>
       </c>
       <c r="F9" s="48"/>
@@ -6206,7 +6262,9 @@
         <v>62</v>
       </c>
       <c r="H9" s="31"/>
-      <c r="I9" s="43"/>
+      <c r="I9" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="61" t="s">
@@ -6240,23 +6298,51 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="30">
+        <v>44859</v>
+      </c>
+      <c r="C10" s="30">
+        <v>44859</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="32">
+        <v>868926033939841</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="I10" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>111</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
       <c r="U10" s="71"/>
@@ -6269,23 +6355,51 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="B11" s="30">
+        <v>44859</v>
+      </c>
+      <c r="C11" s="30">
+        <v>44859</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="32">
+        <v>864811036923949</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="47"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>111</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
       <c r="U11" s="71"/>
@@ -6298,16 +6412,28 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="B12" s="30">
+        <v>44859</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="32">
+        <v>864811036955495</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="47"/>
-      <c r="I12" s="43"/>
+      <c r="I12" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="61" t="s">
+        <v>77</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="33"/>
       <c r="N12" s="1"/>
@@ -6329,16 +6455,28 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="30">
+        <v>44859</v>
+      </c>
       <c r="C13" s="50"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="D13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="32">
+        <v>868926033965416</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H13" s="39"/>
-      <c r="I13" s="43"/>
+      <c r="I13" s="43" t="s">
+        <v>117</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="61" t="s">
+        <v>77</v>
+      </c>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="1"/>
@@ -6358,16 +6496,28 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="30">
+        <v>44859</v>
+      </c>
       <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="31"/>
+      <c r="D14" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="32">
+        <v>866192037820832</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="43"/>
+      <c r="I14" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="61" t="s">
+        <v>77</v>
+      </c>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="1" t="s">
@@ -6389,16 +6539,28 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="30">
+        <v>44859</v>
+      </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="32">
+        <v>868926033929032</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H15" s="39"/>
-      <c r="I15" s="43"/>
+      <c r="I15" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="61" t="s">
+        <v>77</v>
+      </c>
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
       <c r="N15" s="1"/>
@@ -6418,23 +6580,47 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="30">
+        <v>44859</v>
+      </c>
       <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="32">
+        <v>868926033950194</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H16" s="31"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>77</v>
+      </c>
       <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
+      <c r="M16" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
       <c r="U16" s="72"/>
@@ -6447,22 +6633,47 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="30">
+        <v>44859</v>
+      </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="32">
+        <v>868345031032105</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="33"/>
+      <c r="I17" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>77</v>
+      </c>
       <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="M17" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -6555,7 +6766,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -6619,7 +6830,7 @@
       </c>
       <c r="V22" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="12"/>
     </row>
@@ -6896,7 +7107,7 @@
       </c>
       <c r="V31" s="3">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W31" s="12"/>
     </row>
@@ -6992,7 +7203,7 @@
       </c>
       <c r="V34" s="3">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="12"/>
     </row>
@@ -7024,7 +7235,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -7088,7 +7299,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W37" s="12"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_LapDat.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Thay flash</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>LE.2.00.---25.200220</t>
   </si>
   <si>
@@ -407,6 +404,24 @@
   </si>
   <si>
     <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
   </si>
 </sst>
 </file>
@@ -834,30 +849,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,6 +866,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1218,41 +1233,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1285,57 +1300,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1360,22 +1375,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,7 +1442,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1470,7 +1485,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1499,7 +1514,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1528,7 +1543,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1572,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1586,7 +1601,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1615,7 +1630,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1646,7 +1661,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1675,7 +1690,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1704,7 +1719,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1733,7 +1748,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3450,6 +3465,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3461,13 +3483,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3511,41 +3526,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3578,57 +3593,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3653,22 +3668,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3693,7 +3708,7 @@
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="54"/>
@@ -3706,7 +3721,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3736,19 +3751,19 @@
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="K7" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="61" t="s">
+      <c r="M7" s="55" t="s">
         <v>100</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>101</v>
       </c>
       <c r="N7" s="53"/>
       <c r="O7" s="53" t="s">
@@ -3761,11 +3776,11 @@
         <v>19</v>
       </c>
       <c r="R7" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3793,14 +3808,14 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M8" s="55" t="s">
         <v>38</v>
@@ -3820,7 +3835,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3848,34 +3863,34 @@
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="53" t="s">
         <v>98</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>99</v>
       </c>
       <c r="K9" s="53"/>
       <c r="L9" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="55" t="s">
         <v>100</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>101</v>
       </c>
       <c r="N9" s="53"/>
       <c r="O9" s="53" t="s">
         <v>70</v>
       </c>
       <c r="P9" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="53" t="s">
         <v>19</v>
       </c>
       <c r="R9" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3898,19 +3913,19 @@
         <v>867717030486634</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M10" s="55" t="s">
         <v>38</v>
@@ -3920,7 +3935,7 @@
         <v>70</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="53" t="s">
         <v>19</v>
@@ -3930,7 +3945,7 @@
       </c>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3958,24 +3973,24 @@
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K11" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N11" s="53"/>
       <c r="O11" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P11" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="53" t="s">
         <v>18</v>
@@ -3985,7 +4000,7 @@
       </c>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4014,7 +4029,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4045,7 +4060,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4074,7 +4089,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4103,7 +4118,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4132,7 +4147,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5849,13 +5864,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5867,6 +5875,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5877,8 +5892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5910,41 +5925,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5977,57 +5992,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -6052,22 +6067,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6119,7 +6134,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6178,9 +6193,11 @@
       <c r="R7" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="62"/>
+      <c r="S7" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6235,7 +6252,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6263,7 +6280,7 @@
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -6271,7 +6288,7 @@
         <v>77</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9" s="53"/>
       <c r="O9" s="53" t="s">
@@ -6284,11 +6301,13 @@
         <v>75</v>
       </c>
       <c r="R9" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="S9" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6316,36 +6335,36 @@
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" s="61" t="s">
         <v>77</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6373,36 +6392,36 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" s="61" t="s">
         <v>77</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6415,7 +6434,9 @@
       <c r="B12" s="30">
         <v>44859</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="30">
+        <v>44869</v>
+      </c>
       <c r="D12" s="31" t="s">
         <v>64</v>
       </c>
@@ -6428,22 +6449,38 @@
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K12" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="33"/>
+      <c r="M12" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
+      <c r="O12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6458,7 +6495,9 @@
       <c r="B13" s="30">
         <v>44859</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="30">
+        <v>44869</v>
+      </c>
       <c r="D13" s="31" t="s">
         <v>64</v>
       </c>
@@ -6471,22 +6510,36 @@
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K13" s="61" t="s">
         <v>77</v>
       </c>
       <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="M13" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
+      <c r="O13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6499,7 +6552,9 @@
       <c r="B14" s="30">
         <v>44859</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="30">
+        <v>44869</v>
+      </c>
       <c r="D14" s="31" t="s">
         <v>64</v>
       </c>
@@ -6512,24 +6567,36 @@
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K14" s="61" t="s">
         <v>77</v>
       </c>
       <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
+      <c r="M14" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6542,7 +6609,9 @@
       <c r="B15" s="30">
         <v>44859</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="30">
+        <v>44869</v>
+      </c>
       <c r="D15" s="31" t="s">
         <v>64</v>
       </c>
@@ -6555,22 +6624,38 @@
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K15" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="M15" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
+      <c r="O15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6583,7 +6668,9 @@
       <c r="B16" s="30">
         <v>44859</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="30">
+        <v>44869</v>
+      </c>
       <c r="D16" s="31" t="s">
         <v>64</v>
       </c>
@@ -6596,24 +6683,24 @@
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K16" s="61" t="s">
         <v>77</v>
       </c>
       <c r="L16" s="33"/>
       <c r="M16" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>19</v>
@@ -6621,9 +6708,11 @@
       <c r="R16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6636,7 +6725,9 @@
       <c r="B17" s="30">
         <v>44859</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="30">
+        <v>44869</v>
+      </c>
       <c r="D17" s="31" t="s">
         <v>64</v>
       </c>
@@ -6649,24 +6740,24 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17" s="61" t="s">
         <v>77</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>19</v>
@@ -6674,7 +6765,9 @@
       <c r="R17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="3"/>
+      <c r="S17" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="13"/>
@@ -6684,23 +6777,51 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="30">
+        <v>44859</v>
+      </c>
+      <c r="C18" s="30">
+        <v>44869</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="32">
+        <v>864811037119869</v>
+      </c>
       <c r="F18" s="39"/>
-      <c r="G18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="I18" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -6711,23 +6832,47 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
+      <c r="B19" s="30">
+        <v>44859</v>
+      </c>
+      <c r="C19" s="30">
+        <v>44869</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="32">
+        <v>869627031844913</v>
+      </c>
       <c r="F19" s="39"/>
-      <c r="G19" s="31"/>
+      <c r="G19" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="43"/>
+      <c r="I19" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="61" t="s">
+        <v>77</v>
+      </c>
       <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="M19" s="33" t="s">
+        <v>117</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
+      <c r="O19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="12"/>
       <c r="U19" s="34" t="s">
@@ -6766,7 +6911,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -6830,7 +6975,7 @@
       </c>
       <c r="V22" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W22" s="12"/>
     </row>
@@ -7107,7 +7252,7 @@
       </c>
       <c r="V31" s="3">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W31" s="12"/>
     </row>
@@ -7203,7 +7348,7 @@
       </c>
       <c r="V34" s="3">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W34" s="12"/>
     </row>
@@ -7235,7 +7380,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -7299,7 +7444,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -8364,13 +8509,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8382,6 +8520,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8425,41 +8570,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -8492,57 +8637,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8567,22 +8712,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8634,7 +8779,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8693,7 +8838,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8722,7 +8867,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8751,7 +8896,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8780,7 +8925,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8809,7 +8954,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8838,7 +8983,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8869,7 +9014,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8898,7 +9043,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8927,7 +9072,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8956,7 +9101,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10672,13 +10817,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10690,6 +10828,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10733,41 +10878,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -10800,57 +10945,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -10875,22 +11020,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="84"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="77"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10916,7 +11061,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10947,7 +11092,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10976,7 +11121,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11005,7 +11150,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11034,7 +11179,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11063,7 +11208,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11092,7 +11237,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11123,7 +11268,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11152,7 +11297,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11181,7 +11326,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11210,7 +11355,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12441,6 +12586,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12452,13 +12604,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
